--- a/target/classes/Resources/ReadData.xlsx
+++ b/target/classes/Resources/ReadData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>FirstRow</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Abhi2</t>
+  </si>
+  <si>
+    <t>Abhi_0</t>
+  </si>
+  <si>
+    <t>Abhi_1</t>
+  </si>
+  <si>
+    <t>Abhi_2</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -475,6 +484,50 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/Resources/ReadData.xlsx
+++ b/target/classes/Resources/ReadData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>FirstRow</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -528,6 +528,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/Resources/ReadData.xlsx
+++ b/target/classes/Resources/ReadData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>FirstRow</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -547,6 +547,39 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>

--- a/target/classes/Resources/ReadData.xlsx
+++ b/target/classes/Resources/ReadData.xlsx
@@ -2,72 +2,65 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="FirstSheet" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="FirstSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FirstRow</t>
   </si>
   <si>
-    <t>FirstCell</t>
-  </si>
-  <si>
     <t>SecondRow</t>
   </si>
   <si>
     <t>ThirdRow</t>
   </si>
   <si>
-    <t>abhishek</t>
-  </si>
-  <si>
-    <t>Abhi0</t>
-  </si>
-  <si>
-    <t>Abhi1</t>
-  </si>
-  <si>
     <t>SecondCell</t>
   </si>
   <si>
-    <t>FirstCell_1</t>
-  </si>
-  <si>
     <t>SecondCell_2</t>
   </si>
   <si>
-    <t>Abhishek_1</t>
-  </si>
-  <si>
-    <t>Abhi2</t>
-  </si>
-  <si>
-    <t>Abhi_0</t>
-  </si>
-  <si>
-    <t>Abhi_1</t>
-  </si>
-  <si>
-    <t>Abhi_2</t>
+    <t>Khatod</t>
+  </si>
+  <si>
+    <t>RowName</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>SecondCell_1</t>
+  </si>
+  <si>
+    <t>ThirdCell_1</t>
+  </si>
+  <si>
+    <t>ThirdCell</t>
+  </si>
+  <si>
+    <t>ThirdCell_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,17 +103,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -134,10 +127,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -295,7 +288,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -304,13 +297,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -320,7 +313,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -329,7 +322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -338,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -348,12 +341,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -384,7 +377,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -403,7 +396,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -415,199 +408,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.453125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>